--- a/Code/Results/Cases/Case_2_212/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_212/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.36070989636383</v>
+        <v>15.1296102336659</v>
       </c>
       <c r="C2">
-        <v>19.56179011794973</v>
+        <v>12.51061022566877</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.214526690325275</v>
+        <v>15.39268966090119</v>
       </c>
       <c r="F2">
-        <v>41.95834617279698</v>
+        <v>45.50279647625896</v>
       </c>
       <c r="G2">
-        <v>2.072435410079956</v>
+        <v>3.672419454595956</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>25.3040310068176</v>
+        <v>27.48889242981799</v>
       </c>
       <c r="J2">
-        <v>5.869561725789519</v>
+        <v>9.026419800367718</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.06116813141062</v>
+        <v>18.91083277741815</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.82637743591026</v>
+        <v>14.66830947948019</v>
       </c>
       <c r="C3">
-        <v>18.12891088382152</v>
+        <v>11.98712236882445</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.163557909482032</v>
+        <v>15.41986848673057</v>
       </c>
       <c r="F3">
-        <v>40.08890752242768</v>
+        <v>45.21257085386257</v>
       </c>
       <c r="G3">
-        <v>2.084909865994161</v>
+        <v>3.676596264746986</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>24.47989516565567</v>
+        <v>27.36398792096362</v>
       </c>
       <c r="J3">
-        <v>5.898296162547012</v>
+        <v>9.044798418533569</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.28037894923372</v>
+        <v>18.82739027006425</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.83750215590904</v>
+        <v>14.38280619574022</v>
       </c>
       <c r="C4">
-        <v>17.20857804573434</v>
+        <v>11.65810411037496</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.134704234234267</v>
+        <v>15.43814699484551</v>
       </c>
       <c r="F4">
-        <v>38.94166359303735</v>
+        <v>45.04541914936755</v>
       </c>
       <c r="G4">
-        <v>2.092708626971227</v>
+        <v>3.679290494736608</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>23.98876861119444</v>
+        <v>27.2935947018549</v>
       </c>
       <c r="J4">
-        <v>5.918900250997725</v>
+        <v>9.057070311397508</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.79121032153739</v>
+        <v>18.78083309253585</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.42253521220098</v>
+        <v>14.26610190406804</v>
       </c>
       <c r="C5">
-        <v>16.82312644238392</v>
+        <v>11.52234809200102</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.123552536719894</v>
+        <v>15.44599704048196</v>
       </c>
       <c r="F5">
-        <v>38.47468322271252</v>
+        <v>44.98012685559629</v>
       </c>
       <c r="G5">
-        <v>2.095925533548317</v>
+        <v>3.680421151240829</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>23.7923514183916</v>
+        <v>27.26650108907947</v>
       </c>
       <c r="J5">
-        <v>5.928000091763944</v>
+        <v>9.062318966659099</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.58962151074756</v>
+        <v>18.76305276533897</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.35289965444304</v>
+        <v>14.24670790055</v>
       </c>
       <c r="C6">
-        <v>16.75848806412996</v>
+        <v>11.49971180779482</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.121737260352992</v>
+        <v>15.44732482070983</v>
       </c>
       <c r="F6">
-        <v>38.39718632990929</v>
+        <v>44.96945686697436</v>
       </c>
       <c r="G6">
-        <v>2.096462149339895</v>
+        <v>3.680610876988667</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>23.75996072991774</v>
+        <v>27.26209857648393</v>
       </c>
       <c r="J6">
-        <v>5.929552473721379</v>
+        <v>9.063205450820799</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.55601903854442</v>
+        <v>18.76017279379496</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.83195461064845</v>
+        <v>14.38123345019184</v>
       </c>
       <c r="C7">
-        <v>17.20342211968403</v>
+        <v>11.65627972815113</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.134551391244688</v>
+        <v>15.43825123607785</v>
       </c>
       <c r="F7">
-        <v>38.93536301704085</v>
+        <v>45.04452710717584</v>
       </c>
       <c r="G7">
-        <v>2.092751849230829</v>
+        <v>3.679305610444267</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>23.98610461808598</v>
+        <v>27.29322285215597</v>
       </c>
       <c r="J7">
-        <v>5.919020177693198</v>
+        <v>9.057140094133228</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.78850041966095</v>
+        <v>18.78058845407551</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.84124099267955</v>
+        <v>14.9711452629486</v>
       </c>
       <c r="C8">
-        <v>19.07600987777223</v>
+        <v>12.33181866062376</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.196440544777944</v>
+        <v>15.40173165105663</v>
       </c>
       <c r="F8">
-        <v>41.31383899910371</v>
+        <v>45.4004623667247</v>
       </c>
       <c r="G8">
-        <v>2.076710068925809</v>
+        <v>3.67383279037965</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>25.01675702214818</v>
+        <v>27.44452378823417</v>
       </c>
       <c r="J8">
-        <v>5.878828868543654</v>
+        <v>9.032551513050311</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.79408560621763</v>
+        <v>18.88110123204518</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.42144597547233</v>
+        <v>16.10145553282693</v>
       </c>
       <c r="C9">
-        <v>22.43762682314073</v>
+        <v>13.58742006627016</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.337702003687037</v>
+        <v>15.34267475066007</v>
       </c>
       <c r="F9">
-        <v>45.97133081216445</v>
+        <v>46.1838890171344</v>
       </c>
       <c r="G9">
-        <v>2.046166085463486</v>
+        <v>3.664123215144903</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>27.15846088353508</v>
+        <v>27.79072959967322</v>
       </c>
       <c r="J9">
-        <v>5.825577604292864</v>
+        <v>8.992190787705342</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.11452240952782</v>
+        <v>19.11453757372785</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.84985451993234</v>
+        <v>16.90528232782922</v>
       </c>
       <c r="C10">
-        <v>24.73603245895468</v>
+        <v>14.45759293425087</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.454733148486863</v>
+        <v>15.30685728316319</v>
       </c>
       <c r="F10">
-        <v>49.38247847659723</v>
+        <v>46.80827174695793</v>
       </c>
       <c r="G10">
-        <v>2.023976964873258</v>
+        <v>3.657604419982888</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>28.81173668651839</v>
+        <v>28.07448810345904</v>
       </c>
       <c r="J10">
-        <v>5.805305519126756</v>
+        <v>8.967359926920917</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.76459744261027</v>
+        <v>19.3070520199498</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.91525344844306</v>
+        <v>17.26327036128948</v>
       </c>
       <c r="C11">
-        <v>25.74919248711418</v>
+        <v>14.84039081089569</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.511241893455469</v>
+        <v>15.2921894037814</v>
       </c>
       <c r="F11">
-        <v>50.93328756237737</v>
+        <v>47.10213036550553</v>
       </c>
       <c r="G11">
-        <v>2.013856196366192</v>
+        <v>3.654770516853836</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>29.58363226284795</v>
+        <v>28.20974943877492</v>
       </c>
       <c r="J11">
-        <v>5.801034947923171</v>
+        <v>8.957117794722659</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.48596165749399</v>
+        <v>19.39892306018782</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.31347769782966</v>
+        <v>17.3975877047657</v>
       </c>
       <c r="C12">
-        <v>26.12866108570813</v>
+        <v>14.98335401764389</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.533157173137052</v>
+        <v>15.28686738808811</v>
       </c>
       <c r="F12">
-        <v>51.52070831978308</v>
+        <v>47.21474813226167</v>
       </c>
       <c r="G12">
-        <v>2.010011852471664</v>
+        <v>3.653716163213058</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>29.87907856417775</v>
+        <v>28.2618365088951</v>
       </c>
       <c r="J12">
-        <v>5.8002142115026</v>
+        <v>8.95339145866763</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.75516446857788</v>
+        <v>19.43430528938819</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.22793755716173</v>
+        <v>17.3687175247961</v>
       </c>
       <c r="C13">
-        <v>26.04711402410178</v>
+        <v>14.95265471161505</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.528413455916384</v>
+        <v>15.28800326556906</v>
       </c>
       <c r="F13">
-        <v>51.39418293919484</v>
+        <v>47.19043547805441</v>
       </c>
       <c r="G13">
-        <v>2.010840467470965</v>
+        <v>3.653942403775625</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>29.81530323359243</v>
+        <v>28.25058045534619</v>
       </c>
       <c r="J13">
-        <v>5.800354071725741</v>
+        <v>8.95418721526914</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.69735877517457</v>
+        <v>19.42665914311951</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.94811750200562</v>
+        <v>17.2743464376316</v>
       </c>
       <c r="C14">
-        <v>25.7804927068567</v>
+        <v>14.85219305689839</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.513034206207093</v>
+        <v>15.29174690872837</v>
       </c>
       <c r="F14">
-        <v>50.98160944487864</v>
+        <v>47.11136907056639</v>
       </c>
       <c r="G14">
-        <v>2.013540207146709</v>
+        <v>3.654683398829548</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>29.60787371254155</v>
+        <v>28.21401743875028</v>
       </c>
       <c r="J14">
-        <v>5.800950935722276</v>
+        <v>8.956808174092746</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.50818701689656</v>
+        <v>19.40182224641753</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.77605381550584</v>
+        <v>17.21637535114519</v>
       </c>
       <c r="C15">
-        <v>25.61664843584181</v>
+        <v>14.79039450945511</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.50368286981171</v>
+        <v>15.2940702217975</v>
       </c>
       <c r="F15">
-        <v>50.72892921717413</v>
+        <v>47.06311089710734</v>
       </c>
       <c r="G15">
-        <v>2.015192077053022</v>
+        <v>3.655139722073367</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>29.48123729906096</v>
+        <v>28.19173370229262</v>
       </c>
       <c r="J15">
-        <v>5.801422968367056</v>
+        <v>8.958433418786225</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.39180571624809</v>
+        <v>19.3866853528667</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.77947296534044</v>
+        <v>16.88172010499234</v>
       </c>
       <c r="C16">
-        <v>24.66920635194569</v>
+        <v>14.43230316788135</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.451109633458586</v>
+        <v>15.30784845828671</v>
       </c>
       <c r="F16">
-        <v>49.28113225914074</v>
+        <v>46.78925892198313</v>
       </c>
       <c r="G16">
-        <v>2.024637187718336</v>
+        <v>3.657792257825503</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>28.76171348814519</v>
+        <v>28.06577095183214</v>
       </c>
       <c r="J16">
-        <v>5.805691188845761</v>
+        <v>8.968050528916999</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.71688603742712</v>
+        <v>19.3011323500558</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.15832657973347</v>
+        <v>16.67434878771885</v>
       </c>
       <c r="C17">
-        <v>24.07999324797355</v>
+        <v>14.20919441248115</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.419724143369391</v>
+        <v>15.31671635044586</v>
       </c>
       <c r="F17">
-        <v>48.39287551778019</v>
+        <v>46.62372489335846</v>
       </c>
       <c r="G17">
-        <v>2.030419294134031</v>
+        <v>3.659453098013406</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>28.32556651716606</v>
+        <v>27.99006431663538</v>
       </c>
       <c r="J17">
-        <v>5.809634122184485</v>
+        <v>8.974220606708107</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.295514804109</v>
+        <v>19.24973102204295</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.79733174833924</v>
+        <v>16.55435921062008</v>
       </c>
       <c r="C18">
-        <v>23.73801246222321</v>
+        <v>14.07964586511583</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.401976404109248</v>
+        <v>15.3219700248126</v>
       </c>
       <c r="F18">
-        <v>47.88185781831766</v>
+        <v>46.52944331811538</v>
       </c>
       <c r="G18">
-        <v>2.033743027586988</v>
+        <v>3.660420757289546</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>28.07654833014077</v>
+        <v>27.94710281829235</v>
       </c>
       <c r="J18">
-        <v>5.812362318704857</v>
+        <v>8.97786859912466</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.05038238635712</v>
+        <v>19.22057219308313</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.67445265868356</v>
+        <v>16.5136145202082</v>
       </c>
       <c r="C19">
-        <v>23.6216814319293</v>
+        <v>14.03557689830606</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.396018405391564</v>
+        <v>15.32377516536338</v>
       </c>
       <c r="F19">
-        <v>47.70880969757478</v>
+        <v>46.49768295929788</v>
       </c>
       <c r="G19">
-        <v>2.034868269493555</v>
+        <v>3.660750521688484</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>27.99254383330444</v>
+        <v>27.93265755094569</v>
       </c>
       <c r="J19">
-        <v>5.813362720578905</v>
+        <v>8.979120752422302</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.96690188751616</v>
+        <v>19.21076996506463</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.22483155881129</v>
+        <v>16.69649889396416</v>
       </c>
       <c r="C20">
-        <v>24.1430317131906</v>
+        <v>14.23307213098726</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.423033389699375</v>
+        <v>15.3157565131903</v>
       </c>
       <c r="F20">
-        <v>48.48744232937179</v>
+        <v>46.64125062039796</v>
       </c>
       <c r="G20">
-        <v>2.029804037902427</v>
+        <v>3.659275017578358</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>28.37180260441402</v>
+        <v>27.99806323583035</v>
       </c>
       <c r="J20">
-        <v>5.809166174854898</v>
+        <v>8.973553527536099</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.34065558178946</v>
+        <v>19.25516095445309</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.03044533138005</v>
+        <v>17.30210035418184</v>
       </c>
       <c r="C21">
-        <v>25.85891557799074</v>
+        <v>14.8817560510654</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.517537003001797</v>
+        <v>15.29064101388013</v>
       </c>
       <c r="F21">
-        <v>51.10278464138134</v>
+        <v>47.13455702092645</v>
       </c>
       <c r="G21">
-        <v>2.012747619051497</v>
+        <v>3.654465241861787</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>29.66871256353935</v>
+        <v>28.22473354920114</v>
       </c>
       <c r="J21">
-        <v>5.80075327253929</v>
+        <v>8.956034200892638</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.56385675690253</v>
+        <v>19.40910156456762</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.1803449491491</v>
+        <v>17.69058393044493</v>
       </c>
       <c r="C22">
-        <v>26.95617579667689</v>
+        <v>15.29404280804348</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>7.582344521434621</v>
+        <v>15.2755805067736</v>
       </c>
       <c r="F22">
-        <v>52.81327550144349</v>
+        <v>47.4647354929114</v>
       </c>
       <c r="G22">
-        <v>2.001526646124827</v>
+        <v>3.651431202642397</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>30.53486667140925</v>
+        <v>28.37791509003253</v>
       </c>
       <c r="J22">
-        <v>5.799945783368381</v>
+        <v>8.945471378417034</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.34033406294014</v>
+        <v>19.5131528552337</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.56922310199724</v>
+        <v>17.4839549004983</v>
       </c>
       <c r="C23">
-        <v>26.37258522746749</v>
+        <v>15.07509956268644</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>7.547457787564587</v>
+        <v>15.28349515198393</v>
       </c>
       <c r="F23">
-        <v>51.90009979928545</v>
+        <v>47.28782643688461</v>
       </c>
       <c r="G23">
-        <v>2.007525206724507</v>
+        <v>3.653040556706963</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>30.07076281848241</v>
+        <v>28.29570582601387</v>
       </c>
       <c r="J23">
-        <v>5.799916285703982</v>
+        <v>8.951027576837532</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.927923770932</v>
+        <v>19.45731227120647</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.19477680440389</v>
+        <v>16.68648721547613</v>
       </c>
       <c r="C24">
-        <v>24.11454213135027</v>
+        <v>14.22228099334733</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.421536360080838</v>
+        <v>15.31618997145682</v>
       </c>
       <c r="F24">
-        <v>48.44468977517032</v>
+        <v>46.63332447358253</v>
       </c>
       <c r="G24">
-        <v>2.03008219614568</v>
+        <v>3.659355487801391</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>28.35089390661165</v>
+        <v>27.99444516841359</v>
       </c>
       <c r="J24">
-        <v>5.809376303072981</v>
+        <v>8.973854800318861</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.32025642636657</v>
+        <v>19.25270485764245</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.48975678831964</v>
+        <v>15.79965049599985</v>
       </c>
       <c r="C25">
-        <v>21.5597591947957</v>
+        <v>13.25628672353208</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.297264013749212</v>
+        <v>15.35731550193268</v>
       </c>
       <c r="F25">
-        <v>44.713214493401</v>
+        <v>45.96312672849504</v>
       </c>
       <c r="G25">
-        <v>2.054360362185069</v>
+        <v>3.666641323154376</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>26.56568228604032</v>
+        <v>27.69184324223808</v>
       </c>
       <c r="J25">
-        <v>5.836934286075978</v>
+        <v>9.002264943408175</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.47944643219596</v>
+        <v>19.04760949741692</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_212/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_212/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.1296102336659</v>
+        <v>21.36070989636386</v>
       </c>
       <c r="C2">
-        <v>12.51061022566877</v>
+        <v>19.56179011794977</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>15.39268966090119</v>
+        <v>7.214526690325259</v>
       </c>
       <c r="F2">
-        <v>45.50279647625896</v>
+        <v>41.95834617279708</v>
       </c>
       <c r="G2">
-        <v>3.672419454595956</v>
+        <v>2.072435410080225</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>27.48889242981799</v>
+        <v>25.30403100681771</v>
       </c>
       <c r="J2">
-        <v>9.026419800367718</v>
+        <v>5.869561725789634</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.91083277741815</v>
+        <v>15.06116813141061</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.66830947948019</v>
+        <v>19.82637743591022</v>
       </c>
       <c r="C3">
-        <v>11.98712236882445</v>
+        <v>18.12891088382163</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.41986848673057</v>
+        <v>7.163557909482042</v>
       </c>
       <c r="F3">
-        <v>45.21257085386257</v>
+        <v>40.08890752242771</v>
       </c>
       <c r="G3">
-        <v>3.676596264746986</v>
+        <v>2.084909865994025</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>27.36398792096362</v>
+        <v>24.47989516565569</v>
       </c>
       <c r="J3">
-        <v>9.044798418533569</v>
+        <v>5.89829616254698</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18.82739027006425</v>
+        <v>14.28037894923372</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.38280619574022</v>
+        <v>18.83750215590893</v>
       </c>
       <c r="C4">
-        <v>11.65810411037496</v>
+        <v>17.20857804573419</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.43814699484551</v>
+        <v>7.13470423423404</v>
       </c>
       <c r="F4">
-        <v>45.04541914936755</v>
+        <v>38.94166359303741</v>
       </c>
       <c r="G4">
-        <v>3.679290494736608</v>
+        <v>2.092708626970953</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>27.2935947018549</v>
+        <v>23.98876861119459</v>
       </c>
       <c r="J4">
-        <v>9.057070311397508</v>
+        <v>5.918900250997803</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18.78083309253585</v>
+        <v>13.79121032153742</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.26610190406804</v>
+        <v>18.42253521220103</v>
       </c>
       <c r="C5">
-        <v>11.52234809200102</v>
+        <v>16.8231264423838</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15.44599704048196</v>
+        <v>7.123552536720106</v>
       </c>
       <c r="F5">
-        <v>44.98012685559629</v>
+        <v>38.4746832227127</v>
       </c>
       <c r="G5">
-        <v>3.680421151240829</v>
+        <v>2.095925533548718</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>27.26650108907947</v>
+        <v>23.79235141839168</v>
       </c>
       <c r="J5">
-        <v>9.062318966659099</v>
+        <v>5.928000091763932</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.76305276533897</v>
+        <v>13.58962151074756</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.24670790055</v>
+        <v>18.35289965444317</v>
       </c>
       <c r="C6">
-        <v>11.49971180779482</v>
+        <v>16.75848806413016</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15.44732482070983</v>
+        <v>7.121737260353377</v>
       </c>
       <c r="F6">
-        <v>44.96945686697436</v>
+        <v>38.39718632990923</v>
       </c>
       <c r="G6">
-        <v>3.680610876988667</v>
+        <v>2.09646214933989</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>27.26209857648393</v>
+        <v>23.75996072991752</v>
       </c>
       <c r="J6">
-        <v>9.063205450820799</v>
+        <v>5.929552473721221</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.76017279379496</v>
+        <v>13.55601903854436</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.38123345019184</v>
+        <v>18.83195461064844</v>
       </c>
       <c r="C7">
-        <v>11.65627972815113</v>
+        <v>17.20342211968414</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.43825123607785</v>
+        <v>7.134551391244684</v>
       </c>
       <c r="F7">
-        <v>45.04452710717584</v>
+        <v>38.9353630170409</v>
       </c>
       <c r="G7">
-        <v>3.679305610444267</v>
+        <v>2.09275184923056</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>27.29322285215597</v>
+        <v>23.98610461808602</v>
       </c>
       <c r="J7">
-        <v>9.057140094133228</v>
+        <v>5.919020177693027</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.78058845407551</v>
+        <v>13.78850041966093</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.9711452629486</v>
+        <v>20.84124099267943</v>
       </c>
       <c r="C8">
-        <v>12.33181866062376</v>
+        <v>19.07600987777224</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>15.40173165105663</v>
+        <v>7.196440544777932</v>
       </c>
       <c r="F8">
-        <v>45.4004623667247</v>
+        <v>41.31383899910386</v>
       </c>
       <c r="G8">
-        <v>3.67383279037965</v>
+        <v>2.076710068925947</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>27.44452378823417</v>
+        <v>25.01675702214838</v>
       </c>
       <c r="J8">
-        <v>9.032551513050311</v>
+        <v>5.878828868543704</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.88110123204518</v>
+        <v>14.79408560621765</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.10145553282693</v>
+        <v>24.42144597547238</v>
       </c>
       <c r="C9">
-        <v>13.58742006627016</v>
+        <v>22.43762682314078</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>15.34267475066007</v>
+        <v>7.337702003686954</v>
       </c>
       <c r="F9">
-        <v>46.1838890171344</v>
+        <v>45.97133081216445</v>
       </c>
       <c r="G9">
-        <v>3.664123215144903</v>
+        <v>2.046166085463488</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>27.79072959967322</v>
+        <v>27.15846088353508</v>
       </c>
       <c r="J9">
-        <v>8.992190787705342</v>
+        <v>5.825577604292787</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.11453757372785</v>
+        <v>17.11452240952785</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.90528232782922</v>
+        <v>26.84985451993222</v>
       </c>
       <c r="C10">
-        <v>14.45759293425087</v>
+        <v>24.73603245895462</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15.30685728316319</v>
+        <v>7.454733148486836</v>
       </c>
       <c r="F10">
-        <v>46.80827174695793</v>
+        <v>49.38247847659728</v>
       </c>
       <c r="G10">
-        <v>3.657604419982888</v>
+        <v>2.023976964873258</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>28.07448810345904</v>
+        <v>28.81173668651848</v>
       </c>
       <c r="J10">
-        <v>8.967359926920917</v>
+        <v>5.805305519126704</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.3070520199498</v>
+        <v>18.76459744261018</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.26327036128948</v>
+        <v>27.91525344844301</v>
       </c>
       <c r="C11">
-        <v>14.84039081089569</v>
+        <v>25.74919248711407</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15.2921894037814</v>
+        <v>7.51124189345556</v>
       </c>
       <c r="F11">
-        <v>47.10213036550553</v>
+        <v>50.93328756237733</v>
       </c>
       <c r="G11">
-        <v>3.654770516853836</v>
+        <v>2.013856196366311</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>28.20974943877492</v>
+        <v>29.58363226284791</v>
       </c>
       <c r="J11">
-        <v>8.957117794722659</v>
+        <v>5.801034947923201</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.39892306018782</v>
+        <v>19.48596165749393</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.3975877047657</v>
+        <v>28.31347769782964</v>
       </c>
       <c r="C12">
-        <v>14.98335401764389</v>
+        <v>26.12866108570816</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>15.28686738808811</v>
+        <v>7.533157173136925</v>
       </c>
       <c r="F12">
-        <v>47.21474813226167</v>
+        <v>51.52070831978314</v>
       </c>
       <c r="G12">
-        <v>3.653716163213058</v>
+        <v>2.010011852471802</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>28.2618365088951</v>
+        <v>29.87907856417785</v>
       </c>
       <c r="J12">
-        <v>8.95339145866763</v>
+        <v>5.800214211502571</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.43430528938819</v>
+        <v>19.75516446857788</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.3687175247961</v>
+        <v>28.22793755716167</v>
       </c>
       <c r="C13">
-        <v>14.95265471161505</v>
+        <v>26.04711402410161</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>15.28800326556906</v>
+        <v>7.528413455916108</v>
       </c>
       <c r="F13">
-        <v>47.19043547805441</v>
+        <v>51.39418293919486</v>
       </c>
       <c r="G13">
-        <v>3.653942403775625</v>
+        <v>2.01084046747084</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>28.25058045534619</v>
+        <v>29.81530323359252</v>
       </c>
       <c r="J13">
-        <v>8.95418721526914</v>
+        <v>5.800354071725752</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.42665914311951</v>
+        <v>19.69735877517458</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.2743464376316</v>
+        <v>27.94811750200567</v>
       </c>
       <c r="C14">
-        <v>14.85219305689839</v>
+        <v>25.78049270685668</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>15.29174690872837</v>
+        <v>7.51303420620695</v>
       </c>
       <c r="F14">
-        <v>47.11136907056639</v>
+        <v>50.98160944487877</v>
       </c>
       <c r="G14">
-        <v>3.654683398829548</v>
+        <v>2.013540207146855</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>28.21401743875028</v>
+        <v>29.60787371254169</v>
       </c>
       <c r="J14">
-        <v>8.956808174092746</v>
+        <v>5.80095093572227</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.40182224641753</v>
+        <v>19.50818701689657</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.21637535114519</v>
+        <v>27.77605381550604</v>
       </c>
       <c r="C15">
-        <v>14.79039450945511</v>
+        <v>25.61664843584181</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>15.2940702217975</v>
+        <v>7.503682869811959</v>
       </c>
       <c r="F15">
-        <v>47.06311089710734</v>
+        <v>50.72892921717427</v>
       </c>
       <c r="G15">
-        <v>3.655139722073367</v>
+        <v>2.015192077052762</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>28.19173370229262</v>
+        <v>29.48123729906102</v>
       </c>
       <c r="J15">
-        <v>8.958433418786225</v>
+        <v>5.80142296836709</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.3866853528667</v>
+        <v>19.39180571624808</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.88172010499234</v>
+        <v>26.77947296534056</v>
       </c>
       <c r="C16">
-        <v>14.43230316788135</v>
+        <v>24.66920635194566</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>15.30784845828671</v>
+        <v>7.451109633458536</v>
       </c>
       <c r="F16">
-        <v>46.78925892198313</v>
+        <v>49.28113225914081</v>
       </c>
       <c r="G16">
-        <v>3.657792257825503</v>
+        <v>2.024637187718469</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>28.06577095183214</v>
+        <v>28.76171348814521</v>
       </c>
       <c r="J16">
-        <v>8.968050528916999</v>
+        <v>5.80569118884573</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.3011323500558</v>
+        <v>18.71688603742715</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.67434878771885</v>
+        <v>26.15832657973341</v>
       </c>
       <c r="C17">
-        <v>14.20919441248115</v>
+        <v>24.07999324797358</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>15.31671635044586</v>
+        <v>7.419724143369444</v>
       </c>
       <c r="F17">
-        <v>46.62372489335846</v>
+        <v>48.39287551778016</v>
       </c>
       <c r="G17">
-        <v>3.659453098013406</v>
+        <v>2.030419294133898</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>27.99006431663538</v>
+        <v>28.32556651716606</v>
       </c>
       <c r="J17">
-        <v>8.974220606708107</v>
+        <v>5.809634122184497</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.24973102204295</v>
+        <v>18.29551480410894</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.55435921062008</v>
+        <v>25.79733174833924</v>
       </c>
       <c r="C18">
-        <v>14.07964586511583</v>
+        <v>23.7380124622232</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>15.3219700248126</v>
+        <v>7.401976404109159</v>
       </c>
       <c r="F18">
-        <v>46.52944331811538</v>
+        <v>47.88185781831768</v>
       </c>
       <c r="G18">
-        <v>3.660420757289546</v>
+        <v>2.033743027587384</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>27.94710281829235</v>
+        <v>28.07654833014083</v>
       </c>
       <c r="J18">
-        <v>8.97786859912466</v>
+        <v>5.812362318704804</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.22057219308313</v>
+        <v>18.05038238635713</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.5136145202082</v>
+        <v>25.67445265868364</v>
       </c>
       <c r="C19">
-        <v>14.03557689830606</v>
+        <v>23.6216814319292</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>15.32377516536338</v>
+        <v>7.396018405391507</v>
       </c>
       <c r="F19">
-        <v>46.49768295929788</v>
+        <v>47.70880969757495</v>
       </c>
       <c r="G19">
-        <v>3.660750521688484</v>
+        <v>2.034868269493558</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>27.93265755094569</v>
+        <v>27.99254383330462</v>
       </c>
       <c r="J19">
-        <v>8.979120752422302</v>
+        <v>5.813362720578827</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.21076996506463</v>
+        <v>17.96690188751614</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.69649889396416</v>
+        <v>26.22483155881136</v>
       </c>
       <c r="C20">
-        <v>14.23307213098726</v>
+        <v>24.14303171319063</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.3157565131903</v>
+        <v>7.423033389699286</v>
       </c>
       <c r="F20">
-        <v>46.64125062039796</v>
+        <v>48.48744232937187</v>
       </c>
       <c r="G20">
-        <v>3.659275017578358</v>
+        <v>2.029804037902428</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>27.99806323583035</v>
+        <v>28.37180260441413</v>
       </c>
       <c r="J20">
-        <v>8.973553527536099</v>
+        <v>5.809166174854901</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.25516095445309</v>
+        <v>18.34065558178947</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.30210035418184</v>
+        <v>28.03044533138006</v>
       </c>
       <c r="C21">
-        <v>14.8817560510654</v>
+        <v>25.85891557799075</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>15.29064101388013</v>
+        <v>7.517537003001815</v>
       </c>
       <c r="F21">
-        <v>47.13455702092645</v>
+        <v>51.10278464138146</v>
       </c>
       <c r="G21">
-        <v>3.654465241861787</v>
+        <v>2.012747619051632</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>28.22473354920114</v>
+        <v>29.66871256353947</v>
       </c>
       <c r="J21">
-        <v>8.956034200892638</v>
+        <v>5.800753272539279</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.40910156456762</v>
+        <v>19.56385675690251</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.69058393044493</v>
+        <v>29.18034494914905</v>
       </c>
       <c r="C22">
-        <v>15.29404280804348</v>
+        <v>26.95617579667682</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15.2755805067736</v>
+        <v>7.582344521434732</v>
       </c>
       <c r="F22">
-        <v>47.4647354929114</v>
+        <v>52.81327550144347</v>
       </c>
       <c r="G22">
-        <v>3.651431202642397</v>
+        <v>2.001526646124435</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>28.37791509003253</v>
+        <v>30.53486667140931</v>
       </c>
       <c r="J22">
-        <v>8.945471378417034</v>
+        <v>5.799945783368472</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.5131528552337</v>
+        <v>20.34033406294002</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.4839549004983</v>
+        <v>28.56922310199736</v>
       </c>
       <c r="C23">
-        <v>15.07509956268644</v>
+        <v>26.37258522746742</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>15.28349515198393</v>
+        <v>7.547457787564518</v>
       </c>
       <c r="F23">
-        <v>47.28782643688461</v>
+        <v>51.90009979928555</v>
       </c>
       <c r="G23">
-        <v>3.653040556706963</v>
+        <v>2.007525206724642</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>28.29570582601387</v>
+        <v>30.07076281848253</v>
       </c>
       <c r="J23">
-        <v>8.951027576837532</v>
+        <v>5.799916285704081</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.45731227120647</v>
+        <v>19.92792377093203</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.68648721547613</v>
+        <v>26.19477680440402</v>
       </c>
       <c r="C24">
-        <v>14.22228099334733</v>
+        <v>24.1145421313502</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>15.31618997145682</v>
+        <v>7.421536360080938</v>
       </c>
       <c r="F24">
-        <v>46.63332447358253</v>
+        <v>48.44468977517042</v>
       </c>
       <c r="G24">
-        <v>3.659355487801391</v>
+        <v>2.03008219614581</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>27.99444516841359</v>
+        <v>28.35089390661176</v>
       </c>
       <c r="J24">
-        <v>8.973854800318861</v>
+        <v>5.809376303073009</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.25270485764245</v>
+        <v>18.32025642636657</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.79965049599985</v>
+        <v>23.48975678831959</v>
       </c>
       <c r="C25">
-        <v>13.25628672353208</v>
+        <v>21.5597591947956</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>15.35731550193268</v>
+        <v>7.297264013749051</v>
       </c>
       <c r="F25">
-        <v>45.96312672849504</v>
+        <v>44.71321449340102</v>
       </c>
       <c r="G25">
-        <v>3.666641323154376</v>
+        <v>2.054360362184929</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>27.69184324223808</v>
+        <v>26.56568228604031</v>
       </c>
       <c r="J25">
-        <v>9.002264943408175</v>
+        <v>5.836934286075864</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.04760949741692</v>
+        <v>16.47944643219598</v>
       </c>
       <c r="N25">
         <v>0</v>
